--- a/children/CodeSystem-SNOMED-CT-INT.xlsx
+++ b/children/CodeSystem-SNOMED-CT-INT.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.840.1.113883.6.96</t>
+    <t>OID:2.16.840.1.113883.6.96</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>SNOMED CT International Edition</t>
+    <t>SNOMED CT International Edition</t>
   </si>
   <si>
     <t>Status</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2020-11-03</t>
+    <t>2023-09-30</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -141,82 +141,88 @@
     <t>1</t>
   </si>
   <si>
+    <t>27113001</t>
+  </si>
+  <si>
+    <t>Body weight</t>
+  </si>
+  <si>
+    <t>363812007</t>
+  </si>
+  <si>
+    <t>Head circumference</t>
+  </si>
+  <si>
+    <t>229819007</t>
+  </si>
+  <si>
+    <t>Tobacco use and exposure (observable entity)</t>
+  </si>
+  <si>
+    <t>285854004</t>
+  </si>
+  <si>
+    <t>Emotion</t>
+  </si>
+  <si>
+    <t>276885007</t>
+  </si>
+  <si>
+    <t>Core body temperature</t>
+  </si>
+  <si>
     <t>1153637007</t>
   </si>
   <si>
     <t>Body height (observable entity)</t>
   </si>
   <si>
-    <t>425024002</t>
-  </si>
-  <si>
-    <t>Body weight without shoes</t>
-  </si>
-  <si>
-    <t>363812007</t>
-  </si>
-  <si>
-    <t>Head circumference</t>
-  </si>
-  <si>
-    <t>229819007</t>
-  </si>
-  <si>
-    <t>Tobacco use and exposure (observable entity)</t>
-  </si>
-  <si>
-    <t>285854004</t>
-  </si>
-  <si>
-    <t>Emotion</t>
+    <t>248333004</t>
+  </si>
+  <si>
+    <t>Standing height</t>
+  </si>
+  <si>
+    <t>1149101003</t>
+  </si>
+  <si>
+    <t>Recumbent body height (observable entity)</t>
+  </si>
+  <si>
+    <t>225597007</t>
+  </si>
+  <si>
+    <t>Ability to interact with others (observable entity)</t>
+  </si>
+  <si>
+    <t>450320001</t>
+  </si>
+  <si>
+    <t>Edinburgh postnatal depression scale score</t>
+  </si>
+  <si>
+    <t>718133008</t>
+  </si>
+  <si>
+    <t>Strengths and Difficulties Questionnaire for parents or teachers of 4-17 year olds score</t>
+  </si>
+  <si>
+    <t>717639006</t>
+  </si>
+  <si>
+    <t>Strengths and Difficulties Questionnaire self-rated for 11-17 year old score</t>
   </si>
   <si>
     <t>169740003</t>
   </si>
   <si>
-    <t>Infant feeding method</t>
-  </si>
-  <si>
-    <t>228524006</t>
-  </si>
-  <si>
-    <t>Exposed to tobacco smoke at home</t>
-  </si>
-  <si>
-    <t>110483000</t>
-  </si>
-  <si>
-    <t>Tobacco user</t>
-  </si>
-  <si>
-    <t>160245001</t>
-  </si>
-  <si>
-    <t>No current problems or disability</t>
-  </si>
-  <si>
-    <t>1145307003</t>
-  </si>
-  <si>
-    <t>Exclusively breastfed</t>
-  </si>
-  <si>
-    <t>169743001</t>
-  </si>
-  <si>
-    <t>Breastfeeding with supplement</t>
-  </si>
-  <si>
-    <t>169746009</t>
-  </si>
-  <si>
-    <t>Breastfeeding stopped</t>
-  </si>
-  <si>
-    <t>276885007</t>
-  </si>
-  <si>
-    <t>Core body temperature</t>
+    <t>Infant feeding method (observable entity)</t>
+  </si>
+  <si>
+    <t>363788007</t>
+  </si>
+  <si>
+    <t>Clinical history/examination observable (observable entity)</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -705,6 +711,18 @@
       </c>
       <c r="D14" s="2"/>
     </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/children/CodeSystem-SNOMED-CT-INT.xlsx
+++ b/children/CodeSystem-SNOMED-CT-INT.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/children/CodeSystem-SNOMED-CT-INT.xlsx
+++ b/children/CodeSystem-SNOMED-CT-INT.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/children/CodeSystem-SNOMED-CT-INT.xlsx
+++ b/children/CodeSystem-SNOMED-CT-INT.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Kommunernes Landsforening (http://kl.dk)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -356,7 +362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -466,15 +472,15 @@
       <c r="A13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>26</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -488,45 +494,53 @@
       <c r="A16" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>34</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -543,183 +557,183 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2"/>
     </row>

--- a/children/CodeSystem-SNOMED-CT-INT.xlsx
+++ b/children/CodeSystem-SNOMED-CT-INT.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
